--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/sites.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBAF4FD-5A3B-4BDD-9194-DCB6BFD2AD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7764F323-DE78-4F74-AF2E-B3EC2047CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B04231C6-1EC6-46D4-BFA8-7043CDC43D0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B04231C6-1EC6-46D4-BFA8-7043CDC43D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
   <si>
     <t>STATE</t>
   </si>
@@ -84,12 +84,6 @@
     <t>AFRIKE</t>
   </si>
   <si>
-    <t>BAYALUGA</t>
-  </si>
-  <si>
-    <t>BASSINGE</t>
-  </si>
-  <si>
     <t>AKWA IBAMI</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>BANSAN</t>
   </si>
   <si>
-    <t>OTUKPO</t>
-  </si>
-  <si>
     <t>ABARAGBA</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>KIGOL</t>
   </si>
   <si>
-    <t>BEBI</t>
-  </si>
-  <si>
     <t>BIASE</t>
   </si>
   <si>
@@ -157,6 +145,45 @@
   </si>
   <si>
     <t>Site Code</t>
+  </si>
+  <si>
+    <t>BAYULUGA</t>
+  </si>
+  <si>
+    <t>BASSENGE</t>
+  </si>
+  <si>
+    <t>BIMAH</t>
+  </si>
+  <si>
+    <t>BIKAA</t>
+  </si>
+  <si>
+    <t>UTUKPO</t>
+  </si>
+  <si>
+    <t>EZELENG (SHINGILE)</t>
+  </si>
+  <si>
+    <t>ANINGEJE</t>
+  </si>
+  <si>
+    <t>IKOT OKPORA</t>
+  </si>
+  <si>
+    <t>ABIJANG</t>
+  </si>
+  <si>
+    <t>BETUKWEL</t>
+  </si>
+  <si>
+    <t>ATAN-OKONYONG</t>
+  </si>
+  <si>
+    <t>ODUKPANI</t>
+  </si>
+  <si>
+    <t>BEBI (BEMIAH)</t>
   </si>
 </sst>
 </file>
@@ -207,7 +234,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,23 +575,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36462927-5D0D-4197-986F-B9FA69ED2A8C}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -566,8 +615,14 @@
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -589,8 +644,14 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -598,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -609,8 +670,14 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -618,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -627,10 +694,16 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -649,8 +722,14 @@
       <c r="I5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -658,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -667,10 +746,16 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -689,8 +774,14 @@
       <c r="I7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -709,16 +800,22 @@
       <c r="I8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -727,10 +824,16 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -738,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -749,8 +852,14 @@
       <c r="I10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -758,7 +867,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -767,10 +876,16 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -778,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -787,18 +902,24 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -807,38 +928,62 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -846,13 +991,19 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>115</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -860,13 +1011,19 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -874,55 +1031,79 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -930,27 +1111,39 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -958,13 +1151,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -972,19 +1171,191 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D25">
         <v>124</v>
       </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>206</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
-    <sortCondition ref="B2:B25"/>
-    <sortCondition ref="C2:C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:L33">
+    <sortCondition ref="K2:K33"/>
+    <sortCondition ref="L2:L33"/>
   </sortState>
   <conditionalFormatting sqref="C26:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:L33">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
